--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rln3-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rln3-Rxfp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Rxfp1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,28 +552,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
+        <v>0.014278</v>
+      </c>
+      <c r="N2">
+        <v>0.042834</v>
+      </c>
+      <c r="O2">
+        <v>0.08545683615785395</v>
+      </c>
+      <c r="P2">
+        <v>0.109974299791266</v>
+      </c>
+      <c r="Q2">
+        <v>0.01644934588733333</v>
+      </c>
+      <c r="R2">
+        <v>0.148044112986</v>
+      </c>
+      <c r="S2">
+        <v>0.08545683615785395</v>
+      </c>
+      <c r="T2">
+        <v>0.109974299791266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>1.152076333333333</v>
+      </c>
+      <c r="H3">
+        <v>3.456229</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
         <v>0.041056</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>0.123168</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="O3">
+        <v>0.2457288041250071</v>
+      </c>
+      <c r="P3">
+        <v>0.3162281028316444</v>
+      </c>
+      <c r="Q3">
         <v>0.04729964594133333</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>0.425696813472</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="S3">
+        <v>0.2457288041250071</v>
+      </c>
+      <c r="T3">
+        <v>0.3162281028316444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>1.152076333333333</v>
+      </c>
+      <c r="H4">
+        <v>3.456229</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.1117445</v>
+      </c>
+      <c r="N4">
+        <v>0.223489</v>
+      </c>
+      <c r="O4">
+        <v>0.668814359717139</v>
+      </c>
+      <c r="P4">
+        <v>0.5737975973770896</v>
+      </c>
+      <c r="Q4">
+        <v>0.1287381938301667</v>
+      </c>
+      <c r="R4">
+        <v>0.772429162981</v>
+      </c>
+      <c r="S4">
+        <v>0.668814359717139</v>
+      </c>
+      <c r="T4">
+        <v>0.5737975973770896</v>
       </c>
     </row>
   </sheetData>
